--- a/data/raw_data/Material_content.xlsx
+++ b/data/raw_data/Material_content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024BF1E5-28C6-F440-BF25-42B23A673E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6603B67A-F212-EC45-9A84-097D49AB96C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21760" xr2:uid="{730E730F-0C19-714B-9567-4CAB8EE7D98A}"/>
+    <workbookView xWindow="35060" yWindow="500" windowWidth="33740" windowHeight="28300" xr2:uid="{730E730F-0C19-714B-9567-4CAB8EE7D98A}"/>
   </bookViews>
   <sheets>
     <sheet name="kg per pack" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="66">
   <si>
     <t>LFP</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>kWh / kg module</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>From Porzio et al. Needs to be adjusted since it's ratio of CAM not Module as calculcated here</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -663,15 +672,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24E4B10-72B2-B94C-A1FD-132D0925737D}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -717,8 +726,11 @@
       <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -765,7 +777,7 @@
         <v>3.3735275837026633</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -812,7 +824,7 @@
         <v>4.5595333748481304</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -820,31 +832,32 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <f>0.196*'weight per part'!C3</f>
+        <v>23.290680991391095</v>
       </c>
       <c r="E4" s="5">
-        <v>4.1718346563665882</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>11.613485006443188</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>6.7275754073895015</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>5.8558064095598334</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>5.935624471408806</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>2.5150703559056389</v>
+        <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>1.2267193056541128</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -858,8 +871,11 @@
       <c r="O4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -867,31 +883,31 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>4.1718346563665882</v>
       </c>
       <c r="F5" s="5">
-        <v>10.827165556660262</v>
+        <v>11.613485006443188</v>
       </c>
       <c r="G5" s="5">
-        <v>9.4081026526891112</v>
+        <v>6.7275754073895015</v>
       </c>
       <c r="H5" s="5">
-        <v>5.4593246927068897</v>
+        <v>5.8558064095598334</v>
       </c>
       <c r="I5" s="6">
-        <v>5.533738477162732</v>
+        <v>5.935624471408806</v>
       </c>
       <c r="J5" s="6">
-        <v>2.3447813567530256</v>
+        <v>2.5150703559056389</v>
       </c>
       <c r="K5" s="6">
-        <v>1.1436612701957738</v>
+        <v>1.2267193056541128</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -906,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -914,37 +930,37 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5">
-        <v>44.111011635883948</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>33.413642813428893</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>36.670829122501011</v>
+        <v>10.827165556660262</v>
       </c>
       <c r="G6" s="5">
-        <v>36.161843140064342</v>
+        <v>9.4081026526891112</v>
       </c>
       <c r="H6" s="5">
-        <v>34.657907650891538</v>
-      </c>
-      <c r="I6" s="5">
-        <v>33.481217771825705</v>
-      </c>
-      <c r="J6" s="5">
-        <v>31.684775939713159</v>
-      </c>
-      <c r="K6" s="5">
-        <v>31.726733163263606</v>
+        <v>5.4593246927068897</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5.533738477162732</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2.3447813567530256</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1.1436612701957738</v>
       </c>
       <c r="L6" s="5">
-        <v>24.626441040245737</v>
+        <v>0</v>
       </c>
       <c r="M6" s="5">
-        <v>19.830295685010206</v>
+        <v>0</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
@@ -953,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -961,37 +977,37 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5">
-        <v>18.362871621608026</v>
+        <v>44.111011635883948</v>
       </c>
       <c r="E7" s="5">
-        <v>11.094246246026923</v>
+        <v>33.413642813428893</v>
       </c>
       <c r="F7" s="5">
-        <v>13.360288293521737</v>
+        <v>36.670829122501011</v>
       </c>
       <c r="G7" s="5">
-        <v>13.019383147585806</v>
+        <v>36.161843140064342</v>
       </c>
       <c r="H7" s="5">
-        <v>11.922947924860814</v>
-      </c>
-      <c r="I7" s="6">
-        <v>11.912663273260598</v>
-      </c>
-      <c r="J7" s="6">
-        <v>10.722304364966654</v>
-      </c>
-      <c r="K7" s="6">
-        <v>10.627602512387048</v>
+        <v>34.657907650891538</v>
+      </c>
+      <c r="I7" s="5">
+        <v>33.481217771825705</v>
+      </c>
+      <c r="J7" s="5">
+        <v>31.684775939713159</v>
+      </c>
+      <c r="K7" s="5">
+        <v>31.726733163263606</v>
       </c>
       <c r="L7" s="5">
-        <v>9.6642099114258766</v>
+        <v>24.626441040245737</v>
       </c>
       <c r="M7" s="5">
-        <v>0.5494439716487014</v>
+        <v>19.830295685010206</v>
       </c>
       <c r="N7" s="5">
         <v>0</v>
@@ -1000,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1008,37 +1024,37 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5">
-        <v>32.170413133161993</v>
+        <v>18.362871621608026</v>
       </c>
       <c r="E8" s="5">
-        <v>28.844168750746771</v>
+        <v>11.094246246026923</v>
       </c>
       <c r="F8" s="5">
-        <v>28.752956516096852</v>
+        <v>13.360288293521737</v>
       </c>
       <c r="G8" s="5">
-        <v>28.855209805504355</v>
+        <v>13.019383147585806</v>
       </c>
       <c r="H8" s="5">
-        <v>28.24409867478305</v>
+        <v>11.922947924860814</v>
       </c>
       <c r="I8" s="6">
-        <v>22.182140478498898</v>
+        <v>11.912663273260598</v>
       </c>
       <c r="J8" s="6">
-        <v>22.255942867611765</v>
+        <v>10.722304364966654</v>
       </c>
       <c r="K8" s="6">
-        <v>22.580665729918252</v>
+        <v>10.627602512387048</v>
       </c>
       <c r="L8" s="5">
-        <v>0</v>
+        <v>9.6642099114258766</v>
       </c>
       <c r="M8" s="5">
-        <v>0</v>
+        <v>0.5494439716487014</v>
       </c>
       <c r="N8" s="5">
         <v>0</v>
@@ -1047,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1055,93 +1071,93 @@
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>32.170413133161993</v>
+      </c>
+      <c r="E9" s="5">
+        <v>28.844168750746771</v>
+      </c>
+      <c r="F9" s="5">
+        <v>28.752956516096852</v>
+      </c>
+      <c r="G9" s="5">
+        <v>28.855209805504355</v>
+      </c>
+      <c r="H9" s="5">
+        <v>28.24409867478305</v>
+      </c>
+      <c r="I9" s="6">
+        <v>22.182140478498898</v>
+      </c>
+      <c r="J9" s="6">
+        <v>22.255942867611765</v>
+      </c>
+      <c r="K9" s="6">
+        <v>22.580665729918252</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
         <v>1.1674810778157316</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J10" s="6">
         <v>1.1713654140848297</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K10" s="6">
         <v>1.1884560910483291</v>
       </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6.2761631405540408</v>
-      </c>
-      <c r="E10" s="5">
-        <v>6.7600824281655916</v>
-      </c>
-      <c r="F10" s="5">
-        <v>9.3322588239872335</v>
-      </c>
-      <c r="G10" s="5">
-        <v>9.0045000645820785</v>
-      </c>
-      <c r="H10" s="5">
-        <v>7.8467824710415695</v>
-      </c>
-      <c r="I10" s="6">
-        <v>7.9389449115544659</v>
-      </c>
-      <c r="J10" s="6">
-        <v>6.7384280129561329</v>
-      </c>
-      <c r="K10" s="6">
-        <v>6.5760507894027391</v>
-      </c>
       <c r="L10" s="5">
-        <v>0.58127408814596326</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5">
-        <v>0.47155402242307981</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>10.947617064207272</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5">
-        <v>6.7941574992413605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1149,46 +1165,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
-        <v>0</v>
+        <v>6.2761631405540408</v>
       </c>
       <c r="E11" s="5">
-        <v>44.655221478958723</v>
+        <v>6.7600824281655916</v>
       </c>
       <c r="F11" s="5">
-        <v>23.307760415576823</v>
+        <v>9.3322588239872335</v>
       </c>
       <c r="G11" s="5">
-        <v>33.755094453363064</v>
+        <v>9.0045000645820785</v>
       </c>
       <c r="H11" s="5">
-        <v>35.257018592262249</v>
+        <v>7.8467824710415695</v>
       </c>
       <c r="I11" s="6">
-        <v>35.737408737772398</v>
+        <v>7.9389449115544659</v>
       </c>
       <c r="J11" s="6">
-        <v>40.381238452525515</v>
+        <v>6.7384280129561329</v>
       </c>
       <c r="K11" s="6">
-        <v>44.31592880825918</v>
+        <v>6.5760507894027391</v>
       </c>
       <c r="L11" s="5">
-        <v>0</v>
+        <v>0.58127408814596326</v>
       </c>
       <c r="M11" s="5">
-        <v>0</v>
+        <v>0.47155402242307981</v>
       </c>
       <c r="N11" s="5">
-        <v>0</v>
+        <v>10.947617064207272</v>
       </c>
       <c r="O11" s="5">
-        <v>9.1827284950684014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.7941574992413605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1196,31 +1212,31 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>8.4042290551706618</v>
+        <v>44.655221478958723</v>
       </c>
       <c r="F12" s="5">
-        <v>23.395100004938552</v>
+        <v>23.307760415576823</v>
       </c>
       <c r="G12" s="5">
-        <v>13.552633051518891</v>
+        <v>33.755094453363064</v>
       </c>
       <c r="H12" s="5">
-        <v>11.796378275376224</v>
+        <v>35.257018592262249</v>
       </c>
       <c r="I12" s="6">
-        <v>11.957108368346834</v>
+        <v>35.737408737772398</v>
       </c>
       <c r="J12" s="6">
-        <v>5.0665695409796641</v>
+        <v>40.381238452525515</v>
       </c>
       <c r="K12" s="6">
-        <v>2.4712217156557785</v>
+        <v>44.31592880825918</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1232,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>9.1827284950684014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1243,31 +1259,32 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <f>0.196*'weight per part'!C16</f>
+        <v>44.933171083191937</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>21.811077452423621</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>18.95252825005382</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>10.997675588820121</v>
+        <v>0</v>
       </c>
       <c r="I13" s="6">
-        <v>11.14752305713516</v>
+        <v>0</v>
       </c>
       <c r="J13" s="6">
-        <v>4.7235250395625794</v>
+        <v>0</v>
       </c>
       <c r="K13" s="6">
-        <v>2.3039015960992444</v>
+        <v>0</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1281,8 +1298,11 @@
       <c r="O13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1290,37 +1310,37 @@
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6">
-        <v>79.950859469018752</v>
-      </c>
-      <c r="E14" s="6">
-        <v>59.658963512753566</v>
-      </c>
-      <c r="F14" s="6">
-        <v>65.886225086033733</v>
-      </c>
-      <c r="G14" s="6">
-        <v>64.951954057117803</v>
-      </c>
-      <c r="H14" s="6">
-        <v>61.958270736464733</v>
+        <v>14</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8.4042290551706618</v>
+      </c>
+      <c r="F14" s="5">
+        <v>23.395100004938552</v>
+      </c>
+      <c r="G14" s="5">
+        <v>13.552633051518891</v>
+      </c>
+      <c r="H14" s="5">
+        <v>11.796378275376224</v>
       </c>
       <c r="I14" s="6">
-        <v>59.789996336315276</v>
+        <v>11.957108368346834</v>
       </c>
       <c r="J14" s="6">
-        <v>56.367038961762795</v>
+        <v>5.0665695409796641</v>
       </c>
       <c r="K14" s="6">
-        <v>56.353681383638225</v>
+        <v>2.4712217156557785</v>
       </c>
       <c r="L14" s="5">
-        <v>45.296303280006953</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5">
-        <v>36.497131465773393</v>
+        <v>0</v>
       </c>
       <c r="N14" s="5">
         <v>0</v>
@@ -1329,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1337,37 +1357,37 @@
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5">
-        <v>35.797708839002176</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>21.467890255543892</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5">
-        <v>25.957284559993113</v>
+        <v>21.811077452423621</v>
       </c>
       <c r="G15" s="5">
-        <v>25.285178962464617</v>
+        <v>18.95252825005382</v>
       </c>
       <c r="H15" s="5">
-        <v>23.110131063986955</v>
+        <v>10.997675588820121</v>
       </c>
       <c r="I15" s="6">
-        <v>23.089583220601646</v>
+        <v>11.14752305713516</v>
       </c>
       <c r="J15" s="6">
-        <v>20.720935369529311</v>
+        <v>4.7235250395625794</v>
       </c>
       <c r="K15" s="6">
-        <v>20.521092754813413</v>
+        <v>2.3039015960992444</v>
       </c>
       <c r="L15" s="5">
-        <v>19.996550098459302</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5">
-        <v>1.5331157151481394</v>
+        <v>0</v>
       </c>
       <c r="N15" s="5">
         <v>0</v>
@@ -1376,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -1384,37 +1404,37 @@
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5">
-        <v>64.647983198476425</v>
-      </c>
-      <c r="E16" s="5">
-        <v>57.929608265822154</v>
-      </c>
-      <c r="F16" s="5">
-        <v>57.75654877837998</v>
-      </c>
-      <c r="G16" s="5">
-        <v>57.961684687587891</v>
-      </c>
-      <c r="H16" s="5">
-        <v>56.725047579214362</v>
+        <v>16</v>
+      </c>
+      <c r="D16" s="6">
+        <v>79.950859469018752</v>
+      </c>
+      <c r="E16" s="6">
+        <v>59.658963512753566</v>
+      </c>
+      <c r="F16" s="6">
+        <v>65.886225086033733</v>
+      </c>
+      <c r="G16" s="6">
+        <v>64.951954057117803</v>
+      </c>
+      <c r="H16" s="6">
+        <v>61.958270736464733</v>
       </c>
       <c r="I16" s="6">
-        <v>44.545470947146001</v>
+        <v>59.789996336315276</v>
       </c>
       <c r="J16" s="6">
-        <v>44.688514701298985</v>
+        <v>56.367038961762795</v>
       </c>
       <c r="K16" s="6">
-        <v>45.33917782564474</v>
+        <v>56.353681383638225</v>
       </c>
       <c r="L16" s="5">
-        <v>0</v>
+        <v>45.296303280006953</v>
       </c>
       <c r="M16" s="5">
-        <v>0</v>
+        <v>36.497131465773393</v>
       </c>
       <c r="N16" s="5">
         <v>0</v>
@@ -1423,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1431,126 +1451,126 @@
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5">
+        <v>35.797708839002176</v>
+      </c>
+      <c r="E17" s="5">
+        <v>21.467890255543892</v>
+      </c>
+      <c r="F17" s="5">
+        <v>25.957284559993113</v>
+      </c>
+      <c r="G17" s="5">
+        <v>25.285178962464617</v>
+      </c>
+      <c r="H17" s="5">
+        <v>23.110131063986955</v>
+      </c>
+      <c r="I17" s="6">
+        <v>23.089583220601646</v>
+      </c>
+      <c r="J17" s="6">
+        <v>20.720935369529311</v>
+      </c>
+      <c r="K17" s="6">
+        <v>20.521092754813413</v>
+      </c>
+      <c r="L17" s="5">
+        <v>19.996550098459302</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1.5331157151481394</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5">
+        <v>64.647983198476425</v>
+      </c>
+      <c r="E18" s="5">
+        <v>57.929608265822154</v>
+      </c>
+      <c r="F18" s="5">
+        <v>57.75654877837998</v>
+      </c>
+      <c r="G18" s="5">
+        <v>57.961684687587891</v>
+      </c>
+      <c r="H18" s="5">
+        <v>56.725047579214362</v>
+      </c>
+      <c r="I18" s="6">
+        <v>44.545470947146001</v>
+      </c>
+      <c r="J18" s="6">
+        <v>44.688514701298985</v>
+      </c>
+      <c r="K18" s="6">
+        <v>45.33917782564474</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
         <v>2.3444984709024212</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J19" s="6">
         <v>2.3520270895420516</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K19" s="6">
         <v>2.3862725171391967</v>
       </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5">
-        <v>9.4803026971120019</v>
-      </c>
-      <c r="E18" s="5">
-        <v>10.211279138883755</v>
-      </c>
-      <c r="F18" s="5">
-        <v>14.096709950076292</v>
-      </c>
-      <c r="G18" s="5">
-        <v>13.601530898391239</v>
-      </c>
-      <c r="H18" s="5">
-        <v>11.852955964763034</v>
-      </c>
-      <c r="I18" s="6">
-        <v>11.992194250353121</v>
-      </c>
-      <c r="J18" s="6">
-        <v>10.178726085123991</v>
-      </c>
-      <c r="K18" s="6">
-        <v>9.9333991982548451</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0.87827847846433749</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0.71249649308895791</v>
-      </c>
-      <c r="N18" s="5">
-        <v>16.541347109812595</v>
-      </c>
-      <c r="O18" s="5">
-        <v>10.265660266938241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>67.449199005294631</v>
-      </c>
-      <c r="F19" s="5">
-        <v>35.205776835599615</v>
-      </c>
-      <c r="G19" s="5">
-        <v>50.985818900935357</v>
-      </c>
-      <c r="H19" s="5">
-        <v>53.254958631958999</v>
-      </c>
-      <c r="I19" s="6">
-        <v>53.980902179825023</v>
-      </c>
-      <c r="J19" s="6">
-        <v>60.994791719591582</v>
-      </c>
-      <c r="K19" s="6">
-        <v>66.937587445747496</v>
-      </c>
       <c r="L19" s="5">
         <v>0</v>
       </c>
@@ -1561,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="5">
-        <v>13.874681454533714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1572,46 +1592,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>9.4803026971120019</v>
       </c>
       <c r="E20" s="5">
-        <v>12.694115027408062</v>
+        <v>10.211279138883755</v>
       </c>
       <c r="F20" s="5">
-        <v>35.337701054707644</v>
+        <v>14.096709950076292</v>
       </c>
       <c r="G20" s="5">
-        <v>20.470749840450491</v>
+        <v>13.601530898391239</v>
       </c>
       <c r="H20" s="5">
-        <v>17.818172441840368</v>
+        <v>11.852955964763034</v>
       </c>
       <c r="I20" s="6">
-        <v>18.061060384131544</v>
+        <v>11.992194250353121</v>
       </c>
       <c r="J20" s="6">
-        <v>7.6529191705747142</v>
+        <v>10.178726085123991</v>
       </c>
       <c r="K20" s="6">
-        <v>3.7326898958893051</v>
+        <v>9.9333991982548451</v>
       </c>
       <c r="L20" s="5">
-        <v>0</v>
+        <v>0.87827847846433749</v>
       </c>
       <c r="M20" s="5">
-        <v>0</v>
+        <v>0.71249649308895791</v>
       </c>
       <c r="N20" s="5">
-        <v>0</v>
+        <v>16.541347109812595</v>
       </c>
       <c r="O20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>10.265660266938241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
@@ -1619,31 +1639,31 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
       </c>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>67.449199005294631</v>
       </c>
       <c r="F21" s="5">
-        <v>32.945075444521258</v>
+        <v>35.205776835599615</v>
       </c>
       <c r="G21" s="5">
-        <v>28.627091368598755</v>
+        <v>50.985818900935357</v>
       </c>
       <c r="H21" s="5">
-        <v>16.611749430760391</v>
+        <v>53.254958631958999</v>
       </c>
       <c r="I21" s="6">
-        <v>16.83819204996075</v>
+        <v>53.980902179825023</v>
       </c>
       <c r="J21" s="6">
-        <v>7.1347595321801256</v>
+        <v>60.994791719591582</v>
       </c>
       <c r="K21" s="6">
-        <v>3.4799589832030953</v>
+        <v>66.937587445747496</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
@@ -1655,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>13.874681454533714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1666,37 +1686,38 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6">
-        <v>123.93894917103127</v>
-      </c>
-      <c r="E22" s="6">
-        <v>93.206005982251412</v>
-      </c>
-      <c r="F22" s="6">
-        <v>102.7029964767007</v>
-      </c>
-      <c r="G22" s="6">
-        <v>101.23202821635668</v>
-      </c>
-      <c r="H22" s="6">
-        <v>96.827189571828356</v>
+        <v>63</v>
+      </c>
+      <c r="D22" s="5">
+        <f>0.196*'weight per part'!C29</f>
+        <v>69.697052907254346</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
       </c>
       <c r="I22" s="6">
-        <v>93.51270543865347</v>
+        <v>0</v>
       </c>
       <c r="J22" s="6">
-        <v>88.273525760668548</v>
+        <v>0</v>
       </c>
       <c r="K22" s="6">
-        <v>88.333642323483076</v>
+        <v>0</v>
       </c>
       <c r="L22" s="5">
-        <v>68.463526493138247</v>
+        <v>0</v>
       </c>
       <c r="M22" s="5">
-        <v>55.163803501604328</v>
+        <v>0</v>
       </c>
       <c r="N22" s="5">
         <v>0</v>
@@ -1704,8 +1725,11 @@
       <c r="O22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
@@ -1713,37 +1737,37 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="5">
-        <v>61.694218618696176</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5">
-        <v>38.391492082276947</v>
+        <v>12.694115027408062</v>
       </c>
       <c r="F23" s="5">
-        <v>45.599097728886264</v>
+        <v>35.337701054707644</v>
       </c>
       <c r="G23" s="5">
-        <v>44.493356269259259</v>
+        <v>20.470749840450491</v>
       </c>
       <c r="H23" s="5">
-        <v>41.026334602019844</v>
+        <v>17.818172441840368</v>
       </c>
       <c r="I23" s="6">
-        <v>40.87410032296183</v>
+        <v>18.061060384131544</v>
       </c>
       <c r="J23" s="6">
-        <v>37.09547670806424</v>
+        <v>7.6529191705747142</v>
       </c>
       <c r="K23" s="6">
-        <v>36.843653785525404</v>
+        <v>3.7326898958893051</v>
       </c>
       <c r="L23" s="5">
-        <v>32.630158564862604</v>
+        <v>0</v>
       </c>
       <c r="M23" s="5">
-        <v>4.2494985492285977</v>
+        <v>0</v>
       </c>
       <c r="N23" s="5">
         <v>0</v>
@@ -1752,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -1760,31 +1784,31 @@
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5">
-        <v>97.910063932220581</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <v>87.791729785765042</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>87.512648329020379</v>
+        <v>32.945075444521258</v>
       </c>
       <c r="G24" s="5">
-        <v>87.823842983224239</v>
+        <v>28.627091368598755</v>
       </c>
       <c r="H24" s="5">
-        <v>85.965300334237384</v>
+        <v>16.611749430760391</v>
       </c>
       <c r="I24" s="6">
-        <v>67.515477774700543</v>
+        <v>16.83819204996075</v>
       </c>
       <c r="J24" s="6">
-        <v>67.740898202589804</v>
+        <v>7.1347595321801256</v>
       </c>
       <c r="K24" s="6">
-        <v>68.729444749285918</v>
+        <v>3.4799589832030953</v>
       </c>
       <c r="L24" s="5">
         <v>0</v>
@@ -1799,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -1807,173 +1831,173 @@
         <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6">
+        <v>123.93894917103127</v>
+      </c>
+      <c r="E25" s="6">
+        <v>93.206005982251412</v>
+      </c>
+      <c r="F25" s="6">
+        <v>102.7029964767007</v>
+      </c>
+      <c r="G25" s="6">
+        <v>101.23202821635668</v>
+      </c>
+      <c r="H25" s="6">
+        <v>96.827189571828356</v>
+      </c>
+      <c r="I25" s="6">
+        <v>93.51270543865347</v>
+      </c>
+      <c r="J25" s="6">
+        <v>88.273525760668548</v>
+      </c>
+      <c r="K25" s="6">
+        <v>88.333642323483076</v>
+      </c>
+      <c r="L25" s="5">
+        <v>68.463526493138247</v>
+      </c>
+      <c r="M25" s="5">
+        <v>55.163803501604328</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5">
+        <v>61.694218618696176</v>
+      </c>
+      <c r="E26" s="5">
+        <v>38.391492082276947</v>
+      </c>
+      <c r="F26" s="5">
+        <v>45.599097728886264</v>
+      </c>
+      <c r="G26" s="5">
+        <v>44.493356269259259</v>
+      </c>
+      <c r="H26" s="5">
+        <v>41.026334602019844</v>
+      </c>
+      <c r="I26" s="6">
+        <v>40.87410032296183</v>
+      </c>
+      <c r="J26" s="6">
+        <v>37.09547670806424</v>
+      </c>
+      <c r="K26" s="6">
+        <v>36.843653785525404</v>
+      </c>
+      <c r="L26" s="5">
+        <v>32.630158564862604</v>
+      </c>
+      <c r="M26" s="5">
+        <v>4.2494985492285977</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5">
+        <v>97.910063932220581</v>
+      </c>
+      <c r="E27" s="5">
+        <v>87.791729785765042</v>
+      </c>
+      <c r="F27" s="5">
+        <v>87.512648329020379</v>
+      </c>
+      <c r="G27" s="5">
+        <v>87.823842983224239</v>
+      </c>
+      <c r="H27" s="5">
+        <v>85.965300334237384</v>
+      </c>
+      <c r="I27" s="6">
+        <v>67.515477774700543</v>
+      </c>
+      <c r="J27" s="6">
+        <v>67.740898202589804</v>
+      </c>
+      <c r="K27" s="6">
+        <v>68.729444749285918</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
         <v>3.5534461986684498</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J28" s="6">
         <v>3.5653104317152526</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K28" s="6">
         <v>3.6173391973308378</v>
       </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
-      <c r="O25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2.026972614122498</v>
-      </c>
-      <c r="E26" s="5">
-        <v>2.1684029379256224</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2.9882649437798148</v>
-      </c>
-      <c r="G26" s="5">
-        <v>2.8837337093158535</v>
-      </c>
-      <c r="H26" s="5">
-        <v>2.5143551185554545</v>
-      </c>
-      <c r="I26" s="6">
-        <v>2.5407925324974014</v>
-      </c>
-      <c r="J26" s="6">
-        <v>2.1548791730731858</v>
-      </c>
-      <c r="K26" s="6">
-        <v>2.1023670442865128</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0.15192449694244803</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0.12324755068012709</v>
-      </c>
-      <c r="N26" s="5">
-        <v>2.8613200710584605</v>
-      </c>
-      <c r="O26" s="5">
-        <v>1.7757525774326448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>14.14088014005709</v>
-      </c>
-      <c r="F27" s="5">
-        <v>7.3842082938262337</v>
-      </c>
-      <c r="G27" s="5">
-        <v>10.693299374195643</v>
-      </c>
-      <c r="H27" s="5">
-        <v>11.167870374753006</v>
-      </c>
-      <c r="I27" s="6">
-        <v>11.317555046206625</v>
-      </c>
-      <c r="J27" s="6">
-        <v>12.758791928307691</v>
-      </c>
-      <c r="K27" s="6">
-        <v>13.99237661264223</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0</v>
-      </c>
-      <c r="O27" s="5">
-        <v>2.4000405929363091</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2.6613504939114829</v>
-      </c>
-      <c r="F28" s="5">
-        <v>7.4118786366067173</v>
-      </c>
-      <c r="G28" s="5">
-        <v>4.2933478597945909</v>
-      </c>
-      <c r="H28" s="5">
-        <v>3.7365729925861273</v>
-      </c>
-      <c r="I28" s="6">
-        <v>3.7866548508088749</v>
-      </c>
-      <c r="J28" s="6">
-        <v>1.6008252604649382</v>
-      </c>
-      <c r="K28" s="6">
-        <v>0.78026718312516008</v>
-      </c>
       <c r="L28" s="5">
         <v>0</v>
       </c>
@@ -1987,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
@@ -1995,46 +2019,46 @@
         <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="5">
-        <v>0</v>
+        <v>2.026972614122498</v>
       </c>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>2.1684029379256224</v>
       </c>
       <c r="F29" s="5">
-        <v>6.9100392379971662</v>
+        <v>2.9882649437798148</v>
       </c>
       <c r="G29" s="5">
-        <v>6.0039843394819723</v>
+        <v>2.8837337093158535</v>
       </c>
       <c r="H29" s="5">
-        <v>3.4835791653263506</v>
+        <v>2.5143551185554545</v>
       </c>
       <c r="I29" s="6">
-        <v>3.5302701086618251</v>
+        <v>2.5407925324974014</v>
       </c>
       <c r="J29" s="6">
-        <v>1.4924374649574701</v>
+        <v>2.1548791730731858</v>
       </c>
       <c r="K29" s="6">
-        <v>0.72743728221442883</v>
+        <v>2.1023670442865128</v>
       </c>
       <c r="L29" s="5">
-        <v>0</v>
+        <v>0.15192449694244803</v>
       </c>
       <c r="M29" s="5">
-        <v>0</v>
+        <v>0.12324755068012709</v>
       </c>
       <c r="N29" s="5">
-        <v>0</v>
+        <v>2.8613200710584605</v>
       </c>
       <c r="O29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.7757525774326448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>19</v>
       </c>
@@ -2042,37 +2066,38 @@
         <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="6">
-        <v>36.579395687725956</v>
-      </c>
-      <c r="E30" s="6">
-        <v>22.726550859913182</v>
-      </c>
-      <c r="F30" s="6">
-        <v>29.278921272672999</v>
-      </c>
-      <c r="G30" s="6">
-        <v>29.07164382412105</v>
-      </c>
-      <c r="H30" s="6">
-        <v>23.483177628411241</v>
+        <v>63</v>
+      </c>
+      <c r="D30" s="5">
+        <f>0.196*'weight per part'!C42</f>
+        <v>18.872502981750877</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
       </c>
       <c r="I30" s="6">
-        <v>22.734144949060873</v>
+        <v>0.54029756929245853</v>
       </c>
       <c r="J30" s="6">
-        <v>22.039861387679537</v>
+        <v>0.5432490940673993</v>
       </c>
       <c r="K30" s="6">
-        <v>22.100435296113876</v>
+        <v>0.55140711470960946</v>
       </c>
       <c r="L30" s="5">
-        <v>10.894461240289242</v>
+        <v>0</v>
       </c>
       <c r="M30" s="5">
-        <v>8.7835470205862389</v>
+        <v>0</v>
       </c>
       <c r="N30" s="5">
         <v>0</v>
@@ -2080,8 +2105,11 @@
       <c r="O30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>19</v>
       </c>
@@ -2089,46 +2117,46 @@
         <v>23</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31" s="5">
-        <v>16.504428486749351</v>
+        <v>0</v>
       </c>
       <c r="E31" s="5">
-        <v>9.0727233003735996</v>
+        <v>14.14088014005709</v>
       </c>
       <c r="F31" s="5">
-        <v>10.665367818538659</v>
+        <v>7.3842082938262337</v>
       </c>
       <c r="G31" s="5">
-        <v>10.445925352954864</v>
+        <v>10.693299374195643</v>
       </c>
       <c r="H31" s="5">
-        <v>9.6339644566988714</v>
+        <v>11.167870374753006</v>
       </c>
       <c r="I31" s="6">
-        <v>9.7811245848001089</v>
+        <v>11.317555046206625</v>
       </c>
       <c r="J31" s="6">
-        <v>9.8532029136474897</v>
+        <v>12.758791928307691</v>
       </c>
       <c r="K31" s="6">
-        <v>10.021570934976447</v>
+        <v>13.99237661264223</v>
       </c>
       <c r="L31" s="5">
-        <v>11.273937007381921</v>
+        <v>0</v>
       </c>
       <c r="M31" s="5">
-        <v>5.2387388453555719</v>
+        <v>0</v>
       </c>
       <c r="N31" s="5">
         <v>0</v>
       </c>
       <c r="O31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.4000405929363091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>19</v>
       </c>
@@ -2136,31 +2164,31 @@
         <v>23</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D32" s="5">
-        <v>20.487253131252725</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5">
-        <v>18.437138230072641</v>
+        <v>2.6613504939114829</v>
       </c>
       <c r="F32" s="5">
-        <v>18.372168674242275</v>
+        <v>7.4118786366067173</v>
       </c>
       <c r="G32" s="5">
-        <v>18.44572822378818</v>
+        <v>4.2933478597945909</v>
       </c>
       <c r="H32" s="5">
-        <v>18.052276821233594</v>
+        <v>3.7365729925861273</v>
       </c>
       <c r="I32" s="6">
-        <v>14.174749904222439</v>
+        <v>3.7866548508088749</v>
       </c>
       <c r="J32" s="6">
-        <v>14.183720857718701</v>
+        <v>1.6008252604649382</v>
       </c>
       <c r="K32" s="6">
-        <v>14.374493095470285</v>
+        <v>0.78026718312516008</v>
       </c>
       <c r="L32" s="5">
         <v>0</v>
@@ -2175,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>19</v>
       </c>
@@ -2183,220 +2211,220 @@
         <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>6.9100392379971662</v>
+      </c>
+      <c r="G33" s="5">
+        <v>6.0039843394819723</v>
+      </c>
+      <c r="H33" s="5">
+        <v>3.4835791653263506</v>
+      </c>
+      <c r="I33" s="6">
+        <v>3.5302701086618251</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.4924374649574701</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.72743728221442883</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6">
+        <v>36.579395687725956</v>
+      </c>
+      <c r="E34" s="6">
+        <v>22.726550859913182</v>
+      </c>
+      <c r="F34" s="6">
+        <v>29.278921272672999</v>
+      </c>
+      <c r="G34" s="6">
+        <v>29.07164382412105</v>
+      </c>
+      <c r="H34" s="6">
+        <v>23.483177628411241</v>
+      </c>
+      <c r="I34" s="6">
+        <v>22.734144949060873</v>
+      </c>
+      <c r="J34" s="6">
+        <v>22.039861387679537</v>
+      </c>
+      <c r="K34" s="6">
+        <v>22.100435296113876</v>
+      </c>
+      <c r="L34" s="5">
+        <v>10.894461240289242</v>
+      </c>
+      <c r="M34" s="5">
+        <v>8.7835470205862389</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="5">
+        <v>16.504428486749351</v>
+      </c>
+      <c r="E35" s="5">
+        <v>9.0727233003735996</v>
+      </c>
+      <c r="F35" s="5">
+        <v>10.665367818538659</v>
+      </c>
+      <c r="G35" s="5">
+        <v>10.445925352954864</v>
+      </c>
+      <c r="H35" s="5">
+        <v>9.6339644566988714</v>
+      </c>
+      <c r="I35" s="6">
+        <v>9.7811245848001089</v>
+      </c>
+      <c r="J35" s="6">
+        <v>9.8532029136474897</v>
+      </c>
+      <c r="K35" s="6">
+        <v>10.021570934976447</v>
+      </c>
+      <c r="L35" s="5">
+        <v>11.273937007381921</v>
+      </c>
+      <c r="M35" s="5">
+        <v>5.2387388453555719</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="5">
+        <v>20.487253131252725</v>
+      </c>
+      <c r="E36" s="5">
+        <v>18.437138230072641</v>
+      </c>
+      <c r="F36" s="5">
+        <v>18.372168674242275</v>
+      </c>
+      <c r="G36" s="5">
+        <v>18.44572822378818</v>
+      </c>
+      <c r="H36" s="5">
+        <v>18.052276821233594</v>
+      </c>
+      <c r="I36" s="6">
+        <v>14.174749904222439</v>
+      </c>
+      <c r="J36" s="6">
+        <v>14.183720857718701</v>
+      </c>
+      <c r="K36" s="6">
+        <v>14.374493095470285</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
         <v>0.7460394686432863</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J37" s="6">
         <v>0.7465116240904579</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K37" s="6">
         <v>0.75655226818264665</v>
       </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
-      <c r="M33" s="5">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5">
-        <v>0</v>
-      </c>
-      <c r="O33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0.93149215417411257</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0.99595878026080331</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1.3722546729844054</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1.3242848078978913</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1.154766646259263</v>
-      </c>
-      <c r="I34" s="6">
-        <v>1.1669945978040246</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0.99024565872488657</v>
-      </c>
-      <c r="K34" s="6">
-        <v>0.96614024397475506</v>
-      </c>
-      <c r="L34" s="5">
-        <v>6.9747726377695163E-2</v>
-      </c>
-      <c r="M34" s="5">
-        <v>5.6582293274369325E-2</v>
-      </c>
-      <c r="N34" s="5">
-        <v>1.3136167860459924</v>
-      </c>
-      <c r="O34" s="5">
-        <v>0.81523853873399765</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>6.4889860663304484</v>
-      </c>
-      <c r="F35" s="5">
-        <v>3.3886845966621486</v>
-      </c>
-      <c r="G35" s="5">
-        <v>4.9072290445551063</v>
-      </c>
-      <c r="H35" s="5">
-        <v>5.1249963981176982</v>
-      </c>
-      <c r="I35" s="6">
-        <v>5.1948470546795269</v>
-      </c>
-      <c r="J35" s="6">
-        <v>5.8595568024333318</v>
-      </c>
-      <c r="K35" s="6">
-        <v>6.426090419902776</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
-      <c r="M35" s="5">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5">
-        <v>1.1018458375076687</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1.2212440881733944</v>
-      </c>
-      <c r="F36" s="5">
-        <v>3.4013827845563012</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1.9702470284151417</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1.7147336498102306</v>
-      </c>
-      <c r="I36" s="6">
-        <v>1.7381044508730172</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0.73518924026442745</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0.35834280403193725</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-      <c r="O36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>3.1710838313850869</v>
-      </c>
-      <c r="G37" s="5">
-        <v>2.7552699408059014</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1.5986334077816744</v>
-      </c>
-      <c r="I37" s="6">
-        <v>1.620421831511345</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0.68541145189424124</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0.33408032671838844</v>
-      </c>
       <c r="L37" s="5">
         <v>0</v>
       </c>
@@ -2410,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>21</v>
       </c>
@@ -2418,46 +2446,46 @@
         <v>23</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" s="5">
-        <v>24.708652208050328</v>
+        <v>0.93149215417411257</v>
       </c>
       <c r="E38" s="5">
-        <v>19.367462858230208</v>
+        <v>0.99595878026080331</v>
       </c>
       <c r="F38" s="5">
-        <v>20.731000188435921</v>
+        <v>1.3722546729844054</v>
       </c>
       <c r="G38" s="5">
-        <v>20.664552740519994</v>
+        <v>1.3242848078978913</v>
       </c>
       <c r="H38" s="5">
-        <v>19.936754539295215</v>
-      </c>
-      <c r="I38" s="5">
-        <v>19.204131722624126</v>
-      </c>
-      <c r="J38" s="5">
-        <v>14.778317870004596</v>
-      </c>
-      <c r="K38" s="5">
-        <v>14.817900671548816</v>
+        <v>1.154766646259263</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1.1669945978040246</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.99024565872488657</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.96614024397475506</v>
       </c>
       <c r="L38" s="5">
-        <v>5.9519407240006412</v>
+        <v>6.9747726377695163E-2</v>
       </c>
       <c r="M38" s="5">
-        <v>4.7927609295114237</v>
+        <v>5.6582293274369325E-2</v>
       </c>
       <c r="N38" s="5">
-        <v>0</v>
+        <v>1.3136167860459924</v>
       </c>
       <c r="O38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.81523853873399765</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>21</v>
       </c>
@@ -2465,37 +2493,38 @@
         <v>23</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D39" s="5">
-        <v>9.0681642385524359</v>
+        <f>0.196*'weight per part'!C55</f>
+        <v>10.651047310795304</v>
       </c>
       <c r="E39" s="5">
-        <v>5.3932922469494633</v>
+        <v>0</v>
       </c>
       <c r="F39" s="5">
-        <v>6.2990466991936049</v>
+        <v>0</v>
       </c>
       <c r="G39" s="5">
-        <v>6.1804874004006374</v>
+        <v>0</v>
       </c>
       <c r="H39" s="5">
-        <v>5.717337358957165</v>
+        <v>0</v>
       </c>
       <c r="I39" s="6">
-        <v>5.6851065208204217</v>
+        <v>0.54029756929245853</v>
       </c>
       <c r="J39" s="6">
-        <v>5.5586822949719581</v>
+        <v>0.5432490940673993</v>
       </c>
       <c r="K39" s="6">
-        <v>5.6423258078112593</v>
+        <v>0.55140711470960946</v>
       </c>
       <c r="L39" s="5">
-        <v>6.7622338040325047</v>
+        <v>0</v>
       </c>
       <c r="M39" s="5">
-        <v>3.6742206228743295</v>
+        <v>0</v>
       </c>
       <c r="N39" s="5">
         <v>0</v>
@@ -2503,8 +2532,11 @@
       <c r="O39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>21</v>
       </c>
@@ -2512,31 +2544,31 @@
         <v>23</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D40" s="5">
-        <v>9.6981862399472636</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5">
-        <v>8.7891514524188246</v>
+        <v>6.4889860663304484</v>
       </c>
       <c r="F40" s="5">
-        <v>8.7325049907578727</v>
+        <v>3.3886845966621486</v>
       </c>
       <c r="G40" s="5">
-        <v>8.772518775958039</v>
+        <v>4.9072290445551063</v>
       </c>
       <c r="H40" s="5">
-        <v>8.6005265660026584</v>
+        <v>5.1249963981176982</v>
       </c>
       <c r="I40" s="6">
-        <v>6.7601256012932485</v>
+        <v>5.1948470546795269</v>
       </c>
       <c r="J40" s="6">
-        <v>6.7829246394568905</v>
+        <v>5.8595568024333318</v>
       </c>
       <c r="K40" s="6">
-        <v>6.8750482724054427</v>
+        <v>6.426090419902776</v>
       </c>
       <c r="L40" s="5">
         <v>0</v>
@@ -2548,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.1018458375076687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2559,272 +2591,272 @@
         <v>23</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1.2212440881733944</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3.4013827845563012</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1.9702470284151417</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1.7147336498102306</v>
+      </c>
+      <c r="I41" s="6">
+        <v>1.7381044508730172</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.73518924026442745</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.35834280403193725</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3.1710838313850869</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2.7552699408059014</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1.5986334077816744</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1.620421831511345</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.68541145189424124</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.33408032671838844</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="5">
+        <v>24.708652208050328</v>
+      </c>
+      <c r="E43" s="5">
+        <v>19.367462858230208</v>
+      </c>
+      <c r="F43" s="5">
+        <v>20.731000188435921</v>
+      </c>
+      <c r="G43" s="5">
+        <v>20.664552740519994</v>
+      </c>
+      <c r="H43" s="5">
+        <v>19.936754539295215</v>
+      </c>
+      <c r="I43" s="5">
+        <v>19.204131722624126</v>
+      </c>
+      <c r="J43" s="5">
+        <v>14.778317870004596</v>
+      </c>
+      <c r="K43" s="5">
+        <v>14.817900671548816</v>
+      </c>
+      <c r="L43" s="5">
+        <v>5.9519407240006412</v>
+      </c>
+      <c r="M43" s="5">
+        <v>4.7927609295114237</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="5">
+        <v>9.0681642385524359</v>
+      </c>
+      <c r="E44" s="5">
+        <v>5.3932922469494633</v>
+      </c>
+      <c r="F44" s="5">
+        <v>6.2990466991936049</v>
+      </c>
+      <c r="G44" s="5">
+        <v>6.1804874004006374</v>
+      </c>
+      <c r="H44" s="5">
+        <v>5.717337358957165</v>
+      </c>
+      <c r="I44" s="6">
+        <v>5.6851065208204217</v>
+      </c>
+      <c r="J44" s="6">
+        <v>5.5586822949719581</v>
+      </c>
+      <c r="K44" s="6">
+        <v>5.6423258078112593</v>
+      </c>
+      <c r="L44" s="5">
+        <v>6.7622338040325047</v>
+      </c>
+      <c r="M44" s="5">
+        <v>3.6742206228743295</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="5">
+        <v>9.6981862399472636</v>
+      </c>
+      <c r="E45" s="5">
+        <v>8.7891514524188246</v>
+      </c>
+      <c r="F45" s="5">
+        <v>8.7325049907578727</v>
+      </c>
+      <c r="G45" s="5">
+        <v>8.772518775958039</v>
+      </c>
+      <c r="H45" s="5">
+        <v>8.6005265660026584</v>
+      </c>
+      <c r="I45" s="6">
+        <v>6.7601256012932485</v>
+      </c>
+      <c r="J45" s="6">
+        <v>6.7829246394568905</v>
+      </c>
+      <c r="K45" s="6">
+        <v>6.8750482724054427</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="5">
-        <v>0</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
         <v>0.35579608427859205</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J46" s="6">
         <v>0.35699603365562582</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K46" s="6">
         <v>0.36184464591607596</v>
       </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1.405418973870256</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1.5016970735485862</v>
-      </c>
-      <c r="F42" s="5">
-        <v>2.0689709297703245</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1.9966550328664394</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1.7411093441525998</v>
-      </c>
-      <c r="I42" s="6">
-        <v>1.7595233588736154</v>
-      </c>
-      <c r="J42" s="6">
-        <v>1.4945286419659531</v>
-      </c>
-      <c r="K42" s="6">
-        <v>1.4587327018721041</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0.10515663079581289</v>
-      </c>
-      <c r="M42" s="5">
-        <v>8.5307487891620098E-2</v>
-      </c>
-      <c r="N42" s="5">
-        <v>1.9805020543522054</v>
-      </c>
-      <c r="O42" s="5">
-        <v>1.2291115779737323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="5">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5">
-        <v>9.7822756591416731</v>
-      </c>
-      <c r="F43" s="5">
-        <v>5.1085162713913075</v>
-      </c>
-      <c r="G43" s="5">
-        <v>7.3977449846041772</v>
-      </c>
-      <c r="H43" s="5">
-        <v>7.7260664833335158</v>
-      </c>
-      <c r="I43" s="6">
-        <v>7.8313931630479576</v>
-      </c>
-      <c r="J43" s="6">
-        <v>8.8461810414386157</v>
-      </c>
-      <c r="K43" s="6">
-        <v>9.706936810931202</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0</v>
-      </c>
-      <c r="M43" s="5">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5">
-        <v>0</v>
-      </c>
-      <c r="O43" s="5">
-        <v>1.6612211171051223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1.8410497719507493</v>
-      </c>
-      <c r="F44" s="5">
-        <v>5.1276590678434646</v>
-      </c>
-      <c r="G44" s="5">
-        <v>2.9701864210030604</v>
-      </c>
-      <c r="H44" s="5">
-        <v>2.585005949371737</v>
-      </c>
-      <c r="I44" s="6">
-        <v>2.6202464037836601</v>
-      </c>
-      <c r="J44" s="6">
-        <v>1.1099162169391452</v>
-      </c>
-      <c r="K44" s="6">
-        <v>0.54129505315030157</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-      <c r="O44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="5">
-        <v>0</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5">
-        <v>4.7804783503702692</v>
-      </c>
-      <c r="G45" s="5">
-        <v>4.1536240107731572</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2.4099817895551205</v>
-      </c>
-      <c r="I45" s="6">
-        <v>2.4428362026790142</v>
-      </c>
-      <c r="J45" s="6">
-        <v>1.0347666207133315</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0.50464534566566377</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="5">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5">
-        <v>0</v>
-      </c>
-      <c r="O45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="5">
-        <v>46.129441712821048</v>
-      </c>
-      <c r="E46" s="5">
-        <v>31.015104504093753</v>
-      </c>
-      <c r="F46" s="5">
-        <v>33.036614026095783</v>
-      </c>
-      <c r="G46" s="5">
-        <v>32.970847026715191</v>
-      </c>
-      <c r="H46" s="5">
-        <v>31.910339914530848</v>
-      </c>
-      <c r="I46" s="5">
-        <v>30.745987854489528</v>
-      </c>
-      <c r="J46" s="5">
-        <v>29.493171015489775</v>
-      </c>
-      <c r="K46" s="5">
-        <v>29.609978866669078</v>
-      </c>
       <c r="L46" s="5">
-        <v>8.2253410240281681</v>
+        <v>0</v>
       </c>
       <c r="M46" s="5">
-        <v>6.627324746816841</v>
+        <v>0</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
@@ -2833,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>22</v>
       </c>
@@ -2841,46 +2873,46 @@
         <v>23</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D47" s="5">
-        <v>14.424635439674267</v>
+        <v>1.405418973870256</v>
       </c>
       <c r="E47" s="5">
-        <v>9.340333916793373</v>
+        <v>1.5016970735485862</v>
       </c>
       <c r="F47" s="5">
-        <v>10.878676910726597</v>
+        <v>2.0689709297703245</v>
       </c>
       <c r="G47" s="5">
-        <v>10.683948733984444</v>
+        <v>1.9966550328664394</v>
       </c>
       <c r="H47" s="5">
-        <v>9.8958383945780231</v>
+        <v>1.7411093441525998</v>
       </c>
       <c r="I47" s="6">
-        <v>9.7525930660217188</v>
+        <v>1.7595233588736154</v>
       </c>
       <c r="J47" s="6">
-        <v>8.9307699249889509</v>
+        <v>1.4945286419659531</v>
       </c>
       <c r="K47" s="6">
-        <v>8.8802081027716682</v>
+        <v>1.4587327018721041</v>
       </c>
       <c r="L47" s="5">
-        <v>10.89532980784249</v>
+        <v>0.10515663079581289</v>
       </c>
       <c r="M47" s="5">
-        <v>6.0996005259783512</v>
+        <v>8.5307487891620098E-2</v>
       </c>
       <c r="N47" s="5">
-        <v>0</v>
+        <v>1.9805020543522054</v>
       </c>
       <c r="O47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.2291115779737323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2888,31 +2920,31 @@
         <v>23</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D48" s="5">
-        <v>14.73280988902169</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5">
-        <v>13.345828913926466</v>
+        <v>9.7822756591416731</v>
       </c>
       <c r="F48" s="5">
-        <v>13.252403618741759</v>
+        <v>5.1085162713913075</v>
       </c>
       <c r="G48" s="5">
-        <v>13.314560208665148</v>
+        <v>7.3977449846041772</v>
       </c>
       <c r="H48" s="5">
-        <v>13.057877197829063</v>
+        <v>7.7260664833335158</v>
       </c>
       <c r="I48" s="6">
-        <v>10.265653816556711</v>
+        <v>7.8313931630479576</v>
       </c>
       <c r="J48" s="6">
-        <v>10.321732787280586</v>
+        <v>8.8461810414386157</v>
       </c>
       <c r="K48" s="6">
-        <v>10.47673517948258</v>
+        <v>9.706936810931202</v>
       </c>
       <c r="L48" s="5">
         <v>0</v>
@@ -2924,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.6612211171051223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>22</v>
       </c>
@@ -2935,43 +2967,329 @@
         <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1.8410497719507493</v>
+      </c>
+      <c r="F49" s="5">
+        <v>5.1276590678434646</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2.9701864210030604</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2.585005949371737</v>
+      </c>
+      <c r="I49" s="6">
+        <v>2.6202464037836601</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1.1099162169391452</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.54129505315030157</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>4.7804783503702692</v>
+      </c>
+      <c r="G50" s="5">
+        <v>4.1536240107731572</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2.4099817895551205</v>
+      </c>
+      <c r="I50" s="6">
+        <v>2.4428362026790142</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1.0347666207133315</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.50464534566566377</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="5">
+        <v>46.129441712821048</v>
+      </c>
+      <c r="E51" s="5">
+        <v>31.015104504093753</v>
+      </c>
+      <c r="F51" s="5">
+        <v>33.036614026095783</v>
+      </c>
+      <c r="G51" s="5">
+        <v>32.970847026715191</v>
+      </c>
+      <c r="H51" s="5">
+        <v>31.910339914530848</v>
+      </c>
+      <c r="I51" s="5">
+        <v>30.745987854489528</v>
+      </c>
+      <c r="J51" s="5">
+        <v>29.493171015489775</v>
+      </c>
+      <c r="K51" s="5">
+        <v>29.609978866669078</v>
+      </c>
+      <c r="L51" s="5">
+        <v>8.2253410240281681</v>
+      </c>
+      <c r="M51" s="5">
+        <v>6.627324746816841</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="5">
+        <v>14.424635439674267</v>
+      </c>
+      <c r="E52" s="5">
+        <v>9.340333916793373</v>
+      </c>
+      <c r="F52" s="5">
+        <v>10.878676910726597</v>
+      </c>
+      <c r="G52" s="5">
+        <v>10.683948733984444</v>
+      </c>
+      <c r="H52" s="5">
+        <v>9.8958383945780231</v>
+      </c>
+      <c r="I52" s="6">
+        <v>9.7525930660217188</v>
+      </c>
+      <c r="J52" s="6">
+        <v>8.9307699249889509</v>
+      </c>
+      <c r="K52" s="6">
+        <v>8.8802081027716682</v>
+      </c>
+      <c r="L52" s="5">
+        <v>10.89532980784249</v>
+      </c>
+      <c r="M52" s="5">
+        <v>6.0996005259783512</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="5">
+        <v>14.73280988902169</v>
+      </c>
+      <c r="E53" s="5">
+        <v>13.345828913926466</v>
+      </c>
+      <c r="F53" s="5">
+        <v>13.252403618741759</v>
+      </c>
+      <c r="G53" s="5">
+        <v>13.314560208665148</v>
+      </c>
+      <c r="H53" s="5">
+        <v>13.057877197829063</v>
+      </c>
+      <c r="I53" s="6">
+        <v>10.265653816556711</v>
+      </c>
+      <c r="J53" s="6">
+        <v>10.321732787280586</v>
+      </c>
+      <c r="K53" s="6">
+        <v>10.47673517948258</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
         <v>0.54029756929245853</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J54" s="6">
         <v>0.5432490940673993</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K54" s="6">
         <v>0.55140711470960946</v>
       </c>
-      <c r="L49" s="5">
-        <v>0</v>
-      </c>
-      <c r="M49" s="5">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5">
-        <v>0</v>
-      </c>
-      <c r="O49" s="5">
-        <v>0</v>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55">
+        <f>0.196*'weight per part'!C68</f>
+        <v>17.819986385659551</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.54029756929245853</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0.5432490940673993</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0.55140711470960946</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +3301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC94FBC5-566A-0842-9AC8-CAC13902549B}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:N2"/>
     </sheetView>
   </sheetViews>

--- a/data/raw_data/Material_content.xlsx
+++ b/data/raw_data/Material_content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A57EDB-9067-7143-B06B-16DEBEAF104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5170FB7-07D8-1B42-83B9-E08036CD565A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35060" yWindow="500" windowWidth="33740" windowHeight="28300" activeTab="8" xr2:uid="{730E730F-0C19-714B-9567-4CAB8EE7D98A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{730E730F-0C19-714B-9567-4CAB8EE7D98A}"/>
   </bookViews>
   <sheets>
     <sheet name="kg per pack" sheetId="1" r:id="rId1"/>
@@ -247,8 +247,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -331,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -359,6 +360,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,7 +678,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P55"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6773,15 +6775,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC94FBC5-566A-0842-9AC8-CAC13902549B}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -6819,7 +6821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -6915,8 +6917,9 @@
         <f t="shared" si="0"/>
         <v>7.9330609585507936</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -6957,7 +6960,7 @@
         <v>3.3735275837026633</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -6998,7 +7001,7 @@
         <v>4.5595333748481304</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -7121,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -7162,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -7203,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -7411,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -19428,8 +19431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519D7ED6-2302-9845-8693-BD9CC80CE476}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
